--- a/data/trans_orig/P42-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B210F5-29AD-4701-9E97-E4E893D27B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F56A4AE-F1DE-4E47-95FF-91A5761B9E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7162F18A-8C2B-4A47-B2F4-C7B8F28508BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ED3345E-55E9-43C4-AC4B-8319FEAAC0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>74,93%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,19 +128,19 @@
     <t>78,06%</t>
   </si>
   <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -149,58 +149,52 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,109 +206,109 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
@@ -323,43 +317,43 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,06%</t>
+    <t>86,04%</t>
   </si>
   <si>
     <t>90,2%</t>
@@ -371,7 +365,7 @@
     <t>9,8%</t>
   </si>
   <si>
-    <t>13,94%</t>
+    <t>13,96%</t>
   </si>
   <si>
     <t>86,92%</t>
@@ -380,13 +374,13 @@
     <t>84,23%</t>
   </si>
   <si>
-    <t>89,42%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>15,77%</t>
@@ -395,37 +389,37 @@
     <t>89,14%</t>
   </si>
   <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -434,109 +428,109 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54C284-ABBE-4681-991F-CF8276E2D987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED02CF1-5910-47F3-94B8-6A86DF87DF43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,13 +1675,13 @@
         <v>828986</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>793</v>
@@ -1696,13 +1690,13 @@
         <v>828986</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1724,13 @@
         <v>203408</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -1745,13 +1739,13 @@
         <v>203408</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1824,13 @@
         <v>2661356</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>2584</v>
@@ -1845,13 +1839,13 @@
         <v>2661356</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1873,13 @@
         <v>702743</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>700</v>
@@ -1894,13 +1888,13 @@
         <v>702743</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +1948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D816DF01-771E-408D-9970-4D976886C892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53154D57-7760-456D-BAD9-B54ADB780C1D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1992,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2112,13 +2106,13 @@
         <v>89408</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -2127,13 +2121,13 @@
         <v>89408</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2155,13 @@
         <v>22497</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -2176,13 +2170,13 @@
         <v>22497</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2255,13 @@
         <v>504907</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>474</v>
@@ -2276,13 +2270,13 @@
         <v>504907</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2304,13 @@
         <v>77318</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -2325,13 +2319,13 @@
         <v>77318</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2404,13 @@
         <v>870924</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
@@ -2425,13 +2419,13 @@
         <v>870924</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2453,13 @@
         <v>154494</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -2474,13 +2468,13 @@
         <v>154494</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2553,13 @@
         <v>695469</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>627</v>
@@ -2574,13 +2568,13 @@
         <v>695469</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2602,13 @@
         <v>77462</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -2623,13 +2617,13 @@
         <v>77462</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2702,13 @@
         <v>922492</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>878</v>
@@ -2723,13 +2717,13 @@
         <v>922492</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2751,13 @@
         <v>122223</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -2772,13 +2766,13 @@
         <v>122223</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2851,13 @@
         <v>3083200</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>2847</v>
@@ -2872,13 +2866,13 @@
         <v>3083200</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2900,13 @@
         <v>453993</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
@@ -2921,13 +2915,13 @@
         <v>453993</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +2975,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3002,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAB3E19-9481-41B6-B0B3-C1604650803F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF7C230-D3A9-4361-AEDB-C2DD9DEDBAB9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3139,13 +3133,13 @@
         <v>94596</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -3154,13 +3148,13 @@
         <v>94596</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3182,13 @@
         <v>16707</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3203,13 +3197,13 @@
         <v>16707</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3282,13 @@
         <v>458809</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>451</v>
@@ -3303,13 +3297,13 @@
         <v>458809</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3331,13 @@
         <v>99465</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3352,13 +3346,13 @@
         <v>99465</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3431,13 @@
         <v>913510</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>851</v>
@@ -3452,13 +3446,13 @@
         <v>913510</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3480,13 @@
         <v>120133</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -3501,13 +3495,13 @@
         <v>120133</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>676852</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>637</v>
@@ -3601,13 +3595,13 @@
         <v>676852</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3629,13 @@
         <v>101814</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -3650,13 +3644,13 @@
         <v>101814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3729,13 @@
         <v>922787</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>846</v>
@@ -3750,13 +3744,13 @@
         <v>922787</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3778,13 @@
         <v>112421</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3799,13 +3793,13 @@
         <v>112421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3878,13 @@
         <v>3066553</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>2882</v>
@@ -3899,13 +3893,13 @@
         <v>3066553</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3927,13 @@
         <v>450541</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
@@ -3948,13 +3942,13 @@
         <v>450541</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4002,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7A822-D720-43C9-BB9A-61CC615B07ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DB19A2-E993-42B2-8876-66F19FFEB95D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4166,13 +4160,13 @@
         <v>74984</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>142</v>
@@ -4181,13 +4175,13 @@
         <v>74984</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4209,13 @@
         <v>13612</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -4230,13 +4224,13 @@
         <v>13612</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4309,13 @@
         <v>363484</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>644</v>
@@ -4330,13 +4324,13 @@
         <v>363484</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4358,13 @@
         <v>91617</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -4379,13 +4373,13 @@
         <v>91617</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4458,13 @@
         <v>684539</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1036</v>
@@ -4479,13 +4473,13 @@
         <v>684539</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4507,13 @@
         <v>131862</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
@@ -4528,13 +4522,13 @@
         <v>131862</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4607,13 @@
         <v>486906</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>679</v>
@@ -4628,13 +4622,13 @@
         <v>486906</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4656,13 @@
         <v>168873</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4677,13 +4671,13 @@
         <v>168873</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4756,13 @@
         <v>728789</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>1019</v>
@@ -4777,13 +4771,13 @@
         <v>728789</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4805,13 @@
         <v>160370</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -4826,13 +4820,13 @@
         <v>160370</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4905,13 @@
         <v>2338704</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>3520</v>
@@ -4926,13 +4920,13 @@
         <v>2338704</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4954,13 @@
         <v>566332</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4975,13 +4969,13 @@
         <v>566332</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5029,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F56A4AE-F1DE-4E47-95FF-91A5761B9E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C01D5E1-BBEA-4E12-B418-E48036C65C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ED3345E-55E9-43C4-AC4B-8319FEAAC0E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEF59748-97F7-41BE-9953-E499BE8E015C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,10 +80,10 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,109 +92,115 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -206,7 +212,7 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>71,17%</t>
+    <t>71,37%</t>
   </si>
   <si>
     <t>86,95%</t>
@@ -218,67 +224,67 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>28,83%</t>
+    <t>28,63%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>86,2%</t>
+    <t>86,13%</t>
   </si>
   <si>
     <t>90,08%</t>
@@ -290,136 +296,130 @@
     <t>9,92%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>13,87%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>86,07%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED02CF1-5910-47F3-94B8-6A86DF87DF43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A7A65-27D6-45CB-82E7-F2EBA65A6308}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1675,13 +1675,13 @@
         <v>828986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>793</v>
@@ -1690,13 +1690,13 @@
         <v>828986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1724,13 @@
         <v>203408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -1739,13 +1739,13 @@
         <v>203408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1824,13 @@
         <v>2661356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>2584</v>
@@ -1839,13 +1839,13 @@
         <v>2661356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>702743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>700</v>
@@ -1888,13 +1888,13 @@
         <v>702743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,7 +1948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53154D57-7760-456D-BAD9-B54ADB780C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9928B-C05B-4AC2-9C96-A80FA70D98DE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1986,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2106,13 +2106,13 @@
         <v>89408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -2121,13 +2121,13 @@
         <v>89408</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2155,13 @@
         <v>22497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -2170,13 +2170,13 @@
         <v>22497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2255,13 @@
         <v>504907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>474</v>
@@ -2270,13 +2270,13 @@
         <v>504907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2304,13 @@
         <v>77318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -2319,13 +2319,13 @@
         <v>77318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2404,13 @@
         <v>870924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
@@ -2419,13 +2419,13 @@
         <v>870924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2453,13 @@
         <v>154494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -2468,13 +2468,13 @@
         <v>154494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2553,13 @@
         <v>695469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>627</v>
@@ -2568,13 +2568,13 @@
         <v>695469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>77462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -2617,13 +2617,13 @@
         <v>77462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,31 +2699,31 @@
         <v>878</v>
       </c>
       <c r="I16" s="7">
-        <v>922492</v>
+        <v>922491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>878</v>
       </c>
       <c r="N16" s="7">
-        <v>922492</v>
+        <v>922491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2751,13 @@
         <v>122223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -2766,13 +2766,13 @@
         <v>122223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>1044715</v>
+        <v>1044714</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2812,7 +2812,7 @@
         <v>996</v>
       </c>
       <c r="N18" s="7">
-        <v>1044715</v>
+        <v>1044714</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2851,13 +2851,13 @@
         <v>3083200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>2847</v>
@@ -2866,13 +2866,13 @@
         <v>3083200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2900,13 @@
         <v>453993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
@@ -2915,13 +2915,13 @@
         <v>453993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF7C230-D3A9-4361-AEDB-C2DD9DEDBAB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE2F28-667C-4E12-A509-D7650FC076E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3013,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3133,13 +3133,13 @@
         <v>94596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -3148,13 +3148,13 @@
         <v>94596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3182,13 @@
         <v>16707</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3197,13 +3197,13 @@
         <v>16707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3282,13 @@
         <v>458809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>451</v>
@@ -3297,13 +3297,13 @@
         <v>458809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3331,13 @@
         <v>99465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3346,13 +3346,13 @@
         <v>99465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>913510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>851</v>
@@ -3446,13 +3446,13 @@
         <v>913510</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3480,13 @@
         <v>120133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -3495,13 +3495,13 @@
         <v>120133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3580,13 @@
         <v>676852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>637</v>
@@ -3595,13 +3595,13 @@
         <v>676852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>101814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -3644,13 +3644,13 @@
         <v>101814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3729,13 @@
         <v>922787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>846</v>
@@ -3744,13 +3744,13 @@
         <v>922787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3778,13 @@
         <v>112421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3793,13 +3793,13 @@
         <v>112421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3878,13 @@
         <v>3066553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>2882</v>
@@ -3893,13 +3893,13 @@
         <v>3066553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,10 +3927,10 @@
         <v>450541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>126</v>
@@ -3942,10 +3942,10 @@
         <v>450541</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DB19A2-E993-42B2-8876-66F19FFEB95D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8D881-67D0-4A89-BDF9-D2E3D1531E29}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5029,7 +5029,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C01D5E1-BBEA-4E12-B418-E48036C65C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41400D75-292E-4896-9D1C-BC2FBCAD5448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEF59748-97F7-41BE-9953-E499BE8E015C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{806AE124-9EBC-458F-BC98-9FAA452DC28F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>73,24%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>74,93%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -128,19 +128,19 @@
     <t>78,06%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -149,19 +149,19 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>80,3%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,109 +212,109 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
@@ -323,103 +323,109 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>86,07%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -428,109 +434,109 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A7A65-27D6-45CB-82E7-F2EBA65A6308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FEFA2D-38C0-4FB7-A458-DD54D0201042}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9928B-C05B-4AC2-9C96-A80FA70D98DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF0577C-E8EF-46D1-8BA9-49979F7CEEF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2705,7 @@
         <v>878</v>
       </c>
       <c r="I16" s="7">
-        <v>922491</v>
+        <v>922492</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
@@ -2714,7 +2720,7 @@
         <v>878</v>
       </c>
       <c r="N16" s="7">
-        <v>922491</v>
+        <v>922492</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>80</v>
@@ -2797,7 +2803,7 @@
         <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>1044714</v>
+        <v>1044715</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2812,7 +2818,7 @@
         <v>996</v>
       </c>
       <c r="N18" s="7">
-        <v>1044714</v>
+        <v>1044715</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2996,7 +3002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE2F28-667C-4E12-A509-D7650FC076E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EE12B8-3507-4688-BF10-8F7984C853C0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3884,7 +3890,7 @@
         <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>2882</v>
@@ -3899,7 +3905,7 @@
         <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3933,13 @@
         <v>450541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
@@ -3942,13 +3948,13 @@
         <v>450541</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8D881-67D0-4A89-BDF9-D2E3D1531E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7907D021-27CC-4D12-9A13-7E987E9D5811}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4160,13 +4166,13 @@
         <v>74984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>142</v>
@@ -4175,13 +4181,13 @@
         <v>74984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4215,13 @@
         <v>13612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -4224,13 +4230,13 @@
         <v>13612</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4315,13 @@
         <v>363484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>644</v>
@@ -4324,13 +4330,13 @@
         <v>363484</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4364,13 @@
         <v>91617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -4373,13 +4379,13 @@
         <v>91617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4464,13 @@
         <v>684539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1036</v>
@@ -4473,13 +4479,13 @@
         <v>684539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4513,13 @@
         <v>131862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
@@ -4522,13 +4528,13 @@
         <v>131862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4613,13 @@
         <v>486906</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>679</v>
@@ -4622,13 +4628,13 @@
         <v>486906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4662,13 @@
         <v>168873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4671,13 +4677,13 @@
         <v>168873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4762,13 @@
         <v>728789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>1019</v>
@@ -4771,13 +4777,13 @@
         <v>728789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4811,13 @@
         <v>160370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -4820,13 +4826,13 @@
         <v>160370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4911,13 @@
         <v>2338704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>3520</v>
@@ -4920,13 +4926,13 @@
         <v>2338704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4960,13 @@
         <v>566332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4969,13 +4975,13 @@
         <v>566332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41400D75-292E-4896-9D1C-BC2FBCAD5448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E93551-F58F-4DC2-A129-B0F833682566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{806AE124-9EBC-458F-BC98-9FAA452DC28F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E0D9814-5DEA-48B5-8B0F-DF987CA06E59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="141">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,51 +77,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -143,7 +122,7 @@
     <t>24,85%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>83,25%</t>
@@ -209,40 +188,22 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>84,93%</t>
@@ -320,40 +281,22 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>88,38%</t>
@@ -431,112 +374,94 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
 </sst>
 </file>
@@ -948,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FEFA2D-38C0-4FB7-A458-DD54D0201042}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283DF29F-0F3E-4B91-ADD9-B010656A4CDD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1079,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>93</v>
+        <v>512</v>
       </c>
       <c r="I4" s="7">
-        <v>82583</v>
+        <v>509136</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1094,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>93</v>
+        <v>512</v>
       </c>
       <c r="N4" s="7">
-        <v>82583</v>
+        <v>509136</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1128,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>30172</v>
+        <v>172878</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1143,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>30172</v>
+        <v>172878</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1177,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>690</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>682014</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1192,10 +1117,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>690</v>
       </c>
       <c r="N6" s="7">
-        <v>112755</v>
+        <v>682014</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1228,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>419</v>
+        <v>702</v>
       </c>
       <c r="I7" s="7">
-        <v>426553</v>
+        <v>753919</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1243,10 +1168,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>419</v>
+        <v>702</v>
       </c>
       <c r="N7" s="7">
-        <v>426553</v>
+        <v>753919</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1277,10 +1202,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="I8" s="7">
-        <v>142706</v>
+        <v>211930</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1292,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="N8" s="7">
-        <v>142706</v>
+        <v>211930</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1326,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>562</v>
+        <v>906</v>
       </c>
       <c r="I9" s="7">
-        <v>569259</v>
+        <v>965849</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1341,10 +1266,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>562</v>
+        <v>906</v>
       </c>
       <c r="N9" s="7">
-        <v>569259</v>
+        <v>965849</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1377,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>702</v>
+        <v>577</v>
       </c>
       <c r="I10" s="7">
-        <v>753919</v>
+        <v>569315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1392,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>702</v>
+        <v>577</v>
       </c>
       <c r="N10" s="7">
-        <v>753919</v>
+        <v>569315</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1426,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>211930</v>
+        <v>114526</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1441,10 +1366,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>211930</v>
+        <v>114526</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1475,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>965849</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1490,10 +1415,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>965849</v>
+        <v>683841</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1526,10 +1451,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>577</v>
+        <v>793</v>
       </c>
       <c r="I13" s="7">
-        <v>569315</v>
+        <v>828986</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1541,10 +1466,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>577</v>
+        <v>793</v>
       </c>
       <c r="N13" s="7">
-        <v>569315</v>
+        <v>828986</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1575,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7">
-        <v>114526</v>
+        <v>203408</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1590,10 +1515,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="N14" s="7">
-        <v>114526</v>
+        <v>203408</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1624,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>992</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1032394</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1639,10 +1564,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>696</v>
+        <v>992</v>
       </c>
       <c r="N15" s="7">
-        <v>683841</v>
+        <v>1032394</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1656,7 +1581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1675,34 +1600,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>793</v>
+        <v>2584</v>
       </c>
       <c r="I16" s="7">
-        <v>828986</v>
+        <v>2661356</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>793</v>
+        <v>2584</v>
       </c>
       <c r="N16" s="7">
-        <v>828986</v>
+        <v>2661356</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,34 +1649,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>199</v>
+        <v>700</v>
       </c>
       <c r="I17" s="7">
-        <v>203408</v>
+        <v>702743</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>199</v>
+        <v>700</v>
       </c>
       <c r="N17" s="7">
-        <v>203408</v>
+        <v>702743</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>992</v>
+        <v>3284</v>
       </c>
       <c r="I18" s="7">
-        <v>1032394</v>
+        <v>3364099</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1788,10 +1713,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>992</v>
+        <v>3284</v>
       </c>
       <c r="N18" s="7">
-        <v>1032394</v>
+        <v>3364099</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1804,165 +1729,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2584</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2661356</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2584</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2661356</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>700</v>
-      </c>
-      <c r="I20" s="7">
-        <v>702743</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>700</v>
-      </c>
-      <c r="N20" s="7">
-        <v>702743</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3284</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3364099</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3284</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3364099</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1975,8 +1750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF0577C-E8EF-46D1-8BA9-49979F7CEEF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E35E00-B925-4284-9F09-7F41017FF59F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1992,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2106,34 +1881,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="I4" s="7">
-        <v>89408</v>
+        <v>594315</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="N4" s="7">
-        <v>89408</v>
+        <v>594315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,34 +1930,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I5" s="7">
-        <v>22497</v>
+        <v>99815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>22497</v>
+        <v>99815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,10 +1979,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>694130</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2219,10 +1994,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="N6" s="7">
-        <v>111905</v>
+        <v>694130</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2255,34 +2030,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>474</v>
+        <v>790</v>
       </c>
       <c r="I7" s="7">
-        <v>504907</v>
+        <v>870924</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>474</v>
+        <v>790</v>
       </c>
       <c r="N7" s="7">
-        <v>504907</v>
+        <v>870924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,34 +2079,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>77318</v>
+        <v>154494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="N8" s="7">
-        <v>77318</v>
+        <v>154494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>934</v>
       </c>
       <c r="I9" s="7">
-        <v>582225</v>
+        <v>1025418</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2368,10 +2143,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>548</v>
+        <v>934</v>
       </c>
       <c r="N9" s="7">
-        <v>582225</v>
+        <v>1025418</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2404,34 +2179,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>790</v>
+        <v>627</v>
       </c>
       <c r="I10" s="7">
-        <v>870924</v>
+        <v>695469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>790</v>
+        <v>627</v>
       </c>
       <c r="N10" s="7">
-        <v>870924</v>
+        <v>695469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,34 +2228,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>154494</v>
+        <v>77462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>154494</v>
+        <v>77462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,10 +2277,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>934</v>
+        <v>701</v>
       </c>
       <c r="I12" s="7">
-        <v>1025418</v>
+        <v>772931</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2517,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>934</v>
+        <v>701</v>
       </c>
       <c r="N12" s="7">
-        <v>1025418</v>
+        <v>772931</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2553,34 +2328,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>627</v>
+        <v>878</v>
       </c>
       <c r="I13" s="7">
-        <v>695469</v>
+        <v>922492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>627</v>
+        <v>878</v>
       </c>
       <c r="N13" s="7">
-        <v>695469</v>
+        <v>922492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="I14" s="7">
-        <v>77462</v>
+        <v>122223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="N14" s="7">
-        <v>77462</v>
+        <v>122223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,10 +2426,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>772931</v>
+        <v>1044715</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2666,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="N15" s="7">
-        <v>772931</v>
+        <v>1044715</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2683,7 +2458,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2702,34 +2477,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>878</v>
+        <v>2847</v>
       </c>
       <c r="I16" s="7">
-        <v>922492</v>
+        <v>3083200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>878</v>
+        <v>2847</v>
       </c>
       <c r="N16" s="7">
-        <v>922492</v>
+        <v>3083200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,34 +2526,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>118</v>
+        <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>122223</v>
+        <v>453993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>431</v>
       </c>
       <c r="N17" s="7">
-        <v>122223</v>
+        <v>453993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,10 +2575,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3278</v>
       </c>
       <c r="I18" s="7">
-        <v>1044715</v>
+        <v>3537193</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2815,10 +2590,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>996</v>
+        <v>3278</v>
       </c>
       <c r="N18" s="7">
-        <v>1044715</v>
+        <v>3537193</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2831,165 +2606,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2847</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3083200</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2847</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3083200</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>431</v>
-      </c>
-      <c r="I20" s="7">
-        <v>453993</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>431</v>
-      </c>
-      <c r="N20" s="7">
-        <v>453993</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3278</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3537193</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3278</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3537193</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3002,8 +2627,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EE12B8-3507-4688-BF10-8F7984C853C0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471A536-E207-43CC-9F9F-C166ABEF45E7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3019,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3133,34 +2758,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="I4" s="7">
-        <v>94596</v>
+        <v>553405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="N4" s="7">
-        <v>94596</v>
+        <v>553405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,34 +2807,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>16707</v>
+        <v>116172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>16707</v>
+        <v>116172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,10 +2856,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>113</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>111303</v>
+        <v>669577</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3246,10 +2871,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>113</v>
+        <v>663</v>
       </c>
       <c r="N6" s="7">
-        <v>111303</v>
+        <v>669577</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3282,34 +2907,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>451</v>
+        <v>851</v>
       </c>
       <c r="I7" s="7">
-        <v>458809</v>
+        <v>913510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>451</v>
+        <v>851</v>
       </c>
       <c r="N7" s="7">
-        <v>458809</v>
+        <v>913510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,34 +2956,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>99465</v>
+        <v>120133</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7">
-        <v>99465</v>
+        <v>120133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>969</v>
       </c>
       <c r="I9" s="7">
-        <v>558274</v>
+        <v>1033643</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3395,10 +3020,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>969</v>
       </c>
       <c r="N9" s="7">
-        <v>558274</v>
+        <v>1033643</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3431,34 +3056,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>851</v>
+        <v>637</v>
       </c>
       <c r="I10" s="7">
-        <v>913510</v>
+        <v>676852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>851</v>
+        <v>637</v>
       </c>
       <c r="N10" s="7">
-        <v>913510</v>
+        <v>676852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,34 +3105,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>120133</v>
+        <v>101814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="N11" s="7">
-        <v>120133</v>
+        <v>101814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3154,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>969</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1033643</v>
+        <v>778666</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3544,10 +3169,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>969</v>
+        <v>730</v>
       </c>
       <c r="N12" s="7">
-        <v>1033643</v>
+        <v>778666</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3580,34 +3205,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>637</v>
+        <v>846</v>
       </c>
       <c r="I13" s="7">
-        <v>676852</v>
+        <v>922787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>637</v>
+        <v>846</v>
       </c>
       <c r="N13" s="7">
-        <v>676852</v>
+        <v>922787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,34 +3254,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>101814</v>
+        <v>112421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>101814</v>
+        <v>112421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,10 +3303,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>951</v>
       </c>
       <c r="I15" s="7">
-        <v>778666</v>
+        <v>1035208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3693,10 +3318,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>730</v>
+        <v>951</v>
       </c>
       <c r="N15" s="7">
-        <v>778666</v>
+        <v>1035208</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3710,7 +3335,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3729,34 +3354,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>846</v>
+        <v>2882</v>
       </c>
       <c r="I16" s="7">
-        <v>922787</v>
+        <v>3066554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>846</v>
+        <v>2882</v>
       </c>
       <c r="N16" s="7">
-        <v>922787</v>
+        <v>3066554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,34 +3403,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>112421</v>
+        <v>450541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="N17" s="7">
-        <v>112421</v>
+        <v>450541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,10 +3452,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>951</v>
+        <v>3313</v>
       </c>
       <c r="I18" s="7">
-        <v>1035208</v>
+        <v>3517095</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3842,10 +3467,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>951</v>
+        <v>3313</v>
       </c>
       <c r="N18" s="7">
-        <v>1035208</v>
+        <v>3517095</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3858,165 +3483,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2882</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3066553</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2882</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3066553</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>431</v>
-      </c>
-      <c r="I20" s="7">
-        <v>450541</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="7">
-        <v>431</v>
-      </c>
-      <c r="N20" s="7">
-        <v>450541</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3313</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3517094</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3313</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3517094</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4029,8 +3504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7907D021-27CC-4D12-9A13-7E987E9D5811}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAB61C-9FD3-408C-A5B7-5E7BA447AA22}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4046,7 +3521,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4160,34 +3635,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>142</v>
+        <v>786</v>
       </c>
       <c r="I4" s="7">
-        <v>74984</v>
+        <v>410800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>142</v>
+        <v>786</v>
       </c>
       <c r="N4" s="7">
-        <v>74984</v>
+        <v>410800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,34 +3684,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I5" s="7">
-        <v>13612</v>
+        <v>95200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N5" s="7">
-        <v>13612</v>
+        <v>95200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,10 +3733,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>167</v>
+        <v>937</v>
       </c>
       <c r="I6" s="7">
-        <v>88596</v>
+        <v>506000</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4273,10 +3748,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>167</v>
+        <v>937</v>
       </c>
       <c r="N6" s="7">
-        <v>88596</v>
+        <v>506000</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4309,34 +3784,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>644</v>
+        <v>1036</v>
       </c>
       <c r="I7" s="7">
-        <v>363484</v>
+        <v>622026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>644</v>
+        <v>1036</v>
       </c>
       <c r="N7" s="7">
-        <v>363484</v>
+        <v>622026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,34 +3833,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I8" s="7">
-        <v>91617</v>
+        <v>113555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="7">
         <v>141</v>
       </c>
-      <c r="M8" s="7">
-        <v>126</v>
-      </c>
       <c r="N8" s="7">
-        <v>91617</v>
+        <v>113555</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,10 +3882,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>770</v>
+        <v>1177</v>
       </c>
       <c r="I9" s="7">
-        <v>455101</v>
+        <v>735581</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4422,10 +3897,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>770</v>
+        <v>1177</v>
       </c>
       <c r="N9" s="7">
-        <v>455101</v>
+        <v>735581</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4458,34 +3933,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1036</v>
+        <v>679</v>
       </c>
       <c r="I10" s="7">
-        <v>684539</v>
+        <v>471024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>1036</v>
+        <v>679</v>
       </c>
       <c r="N10" s="7">
-        <v>684539</v>
+        <v>471024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,34 +3982,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>131862</v>
+        <v>258571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>131862</v>
+        <v>258571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,10 +4031,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1177</v>
+        <v>739</v>
       </c>
       <c r="I12" s="7">
-        <v>816401</v>
+        <v>729595</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4571,10 +4046,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1177</v>
+        <v>739</v>
       </c>
       <c r="N12" s="7">
-        <v>816401</v>
+        <v>729595</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4607,34 +4082,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>679</v>
+        <v>1019</v>
       </c>
       <c r="I13" s="7">
-        <v>486906</v>
+        <v>716265</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>679</v>
+        <v>1019</v>
       </c>
       <c r="N13" s="7">
-        <v>486906</v>
+        <v>716265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,34 +4131,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>168873</v>
+        <v>138858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="N14" s="7">
-        <v>168873</v>
+        <v>138858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,10 +4180,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>739</v>
+        <v>1175</v>
       </c>
       <c r="I15" s="7">
-        <v>655779</v>
+        <v>855123</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4720,10 +4195,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>739</v>
+        <v>1175</v>
       </c>
       <c r="N15" s="7">
-        <v>655779</v>
+        <v>855123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4737,7 +4212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4756,34 +4231,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>1019</v>
+        <v>3520</v>
       </c>
       <c r="I16" s="7">
-        <v>728789</v>
+        <v>2220114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
-        <v>1019</v>
+        <v>3520</v>
       </c>
       <c r="N16" s="7">
-        <v>728789</v>
+        <v>2220114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,34 +4280,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>156</v>
+        <v>508</v>
       </c>
       <c r="I17" s="7">
-        <v>160370</v>
+        <v>606184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
-        <v>156</v>
+        <v>508</v>
       </c>
       <c r="N17" s="7">
-        <v>160370</v>
+        <v>606184</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,10 +4329,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1175</v>
+        <v>4028</v>
       </c>
       <c r="I18" s="7">
-        <v>889159</v>
+        <v>2826298</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4869,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1175</v>
+        <v>4028</v>
       </c>
       <c r="N18" s="7">
-        <v>889159</v>
+        <v>2826298</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4885,165 +4360,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3520</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2338704</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3520</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2338704</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>508</v>
-      </c>
-      <c r="I20" s="7">
-        <v>566332</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M20" s="7">
-        <v>508</v>
-      </c>
-      <c r="N20" s="7">
-        <v>566332</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4028</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2905036</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4028</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2905036</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
